--- a/biology/Botanique/Ivón_Mercedes_Ramírez_Morillo/Ivón_Mercedes_Ramírez_Morillo.xlsx
+++ b/biology/Botanique/Ivón_Mercedes_Ramírez_Morillo/Ivón_Mercedes_Ramírez_Morillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iv%C3%B3n_Mercedes_Ram%C3%ADrez_Morillo</t>
+          <t>Ivón_Mercedes_Ramírez_Morillo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivón Ramírez, de son nom complet Ivón Mercedes Ramírez Morillo est une botaniste vénézuélienne née en 1965. Spécialiste des Bromeliaceae, elle est l'auteure d'un grand nombre de publications à ce sujet ainsi que sur certaines zones géographiques spécifiques, notamment le Yucatán au Mexique. Elle est l'épouse du botaniste vénézuélien Germán Carnevali.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iv%C3%B3n_Mercedes_Ram%C3%ADrez_Morillo</t>
+          <t>Ivón_Mercedes_Ramírez_Morillo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1987, Ivón Ramírez est licenciée en biologie à l'université centrale du Venezuela puis poursuit sont cursus en maîtrise et doctorat à l'université du Missouri à Saint-Louis aux États-Unis. Elle travaille comme enquêtrice pour le centre de recherche scientifique du Yucatán au Mexique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iv%C3%B3n_Mercedes_Ram%C3%ADrez_Morillo</t>
+          <t>Ivón_Mercedes_Ramírez_Morillo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
